--- a/Companies/Automobile - Passenger Cars/Maruti Suzuki India Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
+++ b/Companies/Automobile - Passenger Cars/Maruti Suzuki India Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '17</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '17</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '17</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '18</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '18</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '17</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '17</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '17</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>17,132.40</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21,438.10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18,940.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20,594.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>21,810.70</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20,594.30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18,940.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21,438.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>17,132.40</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>21810.7</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>17132.4</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>19983.1</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>413.30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>330.10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>343.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>571.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>648.70</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>571.30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>343.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>330.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>413.30</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>648.7</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>330.1</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>461.32</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>17,545.70</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21,768.20</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19,283.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21,165.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>22,459.40</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21,165.60</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19,283.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21,768.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>17,545.70</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>22459.4</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>17545.7</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>20444.42</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>10,498.30</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11,863.80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10,649.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11,929.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>12,003.30</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>11,929.80</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10,649.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>11,863.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10,498.30</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>12003.3</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>10498.3</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>11388.92</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2,146.50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2,327.10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,436.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3,083.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>3,438.30</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3,083.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2,436.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2,327.10</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2,146.50</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>3438.3</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>2146.5</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>2686.26</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>-356.40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>787.10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>246.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-636.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>60.40</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-636.50</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>246.50</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>787.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-356.40</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>787.1</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-636.5</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>20.22000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>652.10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>666.60</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>686.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>828.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>765.20</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>828.20</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>686.90</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>666.60</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>652.10</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>828.2</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>652.1</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>719.8</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>683.90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>682.50</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>689.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>702.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>719.80</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>702.50</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>689.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>682.50</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>683.90</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>719.8</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>682.5</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>695.54</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2,274.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2,446.10</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,226.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,946.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2,841.10</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2,946.10</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,226.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2,446.10</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2,274.00</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>2946.1</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>2226.2</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2546.7</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1,647.30</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,995.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,348.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2,312.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2,631.30</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2,312.50</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2,348.80</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2,995.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1,647.30</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>2995</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1647.3</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2386.98</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>682.70</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>522.90</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>244.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>595.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>271.80</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>595.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>244.90</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>522.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>682.70</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>682.7</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>463.46</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,330.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,517.90</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2,593.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,907.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,903.10</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,907.50</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2,593.70</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,517.90</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,330.00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3517.9</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>2330</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2850.44</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>273.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>20.70</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>273.10</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>26.30</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>31.30</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>73.28</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>2,298.70</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3,502.90</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2,567.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2,634.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>2,882.40</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2,634.40</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2,567.40</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3,502.90</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2,298.70</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>3502.9</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>2298.7</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>2777.16</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,298.70</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3,502.90</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,567.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,634.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,882.40</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,634.40</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,567.40</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3,502.90</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,298.70</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>3502.9</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2298.7</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2777.16</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>742.30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1,018.60</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>768.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>752.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>907.10</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>752.30</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>768.40</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1,018.60</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>742.30</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1018.6</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>742.3</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>837.74</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,556.40</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,484.30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,799.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,882.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1,975.30</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,882.10</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,799.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2,484.30</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,556.40</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>2484.3</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1556.4</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1939.42</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1,556.40</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,484.30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,799.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1,882.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>1,975.30</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1,882.10</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1,799.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2,484.30</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1,556.40</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>2484.3</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1556.4</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>1939.42</v>
       </c>
     </row>
     <row r="22">
@@ -1272,15 +1087,6 @@
         <is>
           <t>151.00</t>
         </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>51.52</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>59.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>65.39</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>62.30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>59.56</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>82.24</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>51.52</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>82.23999999999999</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>51.52</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>64.202</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>51.52</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>59.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>65.39</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>62.30</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>59.56</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>82.24</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>51.52</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>82.23999999999999</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>51.52</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>64.202</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>51.52</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>59.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>62.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>65.39</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>62.30</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>59.56</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>82.24</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>51.52</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>82.23999999999999</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>51.52</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>64.202</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>51.52</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>59.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>65.39</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>62.30</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>59.56</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>82.24</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>51.52</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>82.23999999999999</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>51.52</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>64.202</v>
       </c>
     </row>
     <row r="31"/>
